--- a/static/reportsTemplate/OffsetsTemplate.xlsx
+++ b/static/reportsTemplate/OffsetsTemplate.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urijeronin/Documents/GitHub/automate-reporter-backend/static/reportsTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFD641-BC50-F546-A62D-3E86450C48D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46092C40-7D4F-884A-9699-F835AD7800A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="2100" windowWidth="28040" windowHeight="17360" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Свод" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,22 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>Отпуск в сеть за прошлый период</t>
-  </si>
-  <si>
-    <t>Отпуск в сеть за текущий период</t>
-  </si>
-  <si>
-    <t>Температура за прошлый период</t>
-  </si>
-  <si>
-    <t>Температура за текущий период</t>
-  </si>
-  <si>
-    <t>Температурный фактор</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Филиал</t>
   </si>
@@ -87,12 +75,60 @@
   <si>
     <t>${table:formatOffset.offset}</t>
   </si>
+  <si>
+    <t>Отпуск в сеть за прошлый период, тыс кВтч</t>
+  </si>
+  <si>
+    <t>Отпуск в сеть за текущий период, тыс кВтч</t>
+  </si>
+  <si>
+    <t>Температура за прошлый период, С</t>
+  </si>
+  <si>
+    <t>Температура за текущий период, С</t>
+  </si>
+  <si>
+    <t>Температурный фактор, тыс кВтч</t>
+  </si>
+  <si>
+    <t>Динамика изменения температуры, С</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>(пусто)</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>(Все)</t>
+  </si>
+  <si>
+    <t>Среднее по полю Температура за прошлый период, С</t>
+  </si>
+  <si>
+    <t>Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч</t>
+  </si>
+  <si>
+    <t>Сумма по полю Отпуск в сеть за текущий период, тыс кВтч</t>
+  </si>
+  <si>
+    <t>Среднее по полю Температура за текущий период, С</t>
+  </si>
+  <si>
+    <t>Сумма по полю Температурный фактор, тыс кВтч</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,11 +139,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,18 +166,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +523,1348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44361.806645949073" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="113" xr:uid="{A1D28D28-93A0-B949-9ABD-7627F3082ED9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="I1:P1048576" sheet="Данные"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Филиал" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="${table:offsets.department}"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Месяц" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="${table:offsets.month}"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отпуск в сеть за прошлый период, тыс кВтч" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="${table:offsets.receptionBefore}"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отпуск в сеть за текущий период, тыс кВтч" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="${table:offsets.receptionNow}"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Температура за прошлый период, С" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="${table:offsets.temperatureBefore}"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Температура за текущий период, С" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Динамика изменения температуры, С" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Температурный фактор, тыс кВтч" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="113">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="${table:offsets.temperatureNow}"/>
+    <e v="#VALUE!"/>
+    <s v="${table:offsets.offset}"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBC14E1-2ABA-764B-93EB-FAD2CFE6D3E9}" name="Сводная таблица2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Отпуск в сеть за текущий период, тыс кВтч" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Среднее по полю Температура за прошлый период, С" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Среднее по полю Температура за текущий период, С" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Температурный фактор, тыс кВтч" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,100 +2165,1427 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4054E0E9-069C-BB4C-9457-11231B828C9B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="18.1640625" customWidth="1"/>
+    <col min="1" max="7" width="21" style="4" customWidth="1"/>
+    <col min="9" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="16" width="21" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="e">
+        <f>E2-D2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="O2" s="3" t="e">
+        <f>N2-M2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="P112" s="2"/>
+    </row>
+    <row r="113" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="P113" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G3:G1048576">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P1048576">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O1048576">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -549,12 +3593,97 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98EEA8B-A86F-A540-BCF0-90B6F9B57B28}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/reportsTemplate/OffsetsTemplate.xlsx
+++ b/static/reportsTemplate/OffsetsTemplate.xlsx
@@ -2,25 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urijeronin/Documents/GitHub/automate-reporter-backend/static/reportsTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46092C40-7D4F-884A-9699-F835AD7800A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FA01B-29E8-2C47-A91D-D431CBA9A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" activeTab="1" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
     <sheet name="Свод" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Срез_Месяц">#N/A</definedName>
+    <definedName name="Срез_Филиал">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Филиал</t>
   </si>
@@ -94,31 +107,31 @@
     <t>Динамика изменения температуры, С</t>
   </si>
   <si>
-    <t>Названия строк</t>
-  </si>
-  <si>
     <t>(пусто)</t>
   </si>
   <si>
     <t>Общий итог</t>
   </si>
   <si>
-    <t>(Все)</t>
+    <t>ОС за прошлый период, тыс кВтч</t>
   </si>
   <si>
-    <t>Среднее по полю Температура за прошлый период, С</t>
+    <t>ОС за текущий период, тыс кВтч</t>
   </si>
   <si>
-    <t>Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч</t>
+    <t>температура за прошлый период, С,</t>
   </si>
   <si>
-    <t>Сумма по полю Отпуск в сеть за текущий период, тыс кВтч</t>
+    <t>Температура за текущий период, С,</t>
   </si>
   <si>
-    <t>Среднее по полю Температура за текущий период, С</t>
+    <t>Температурный фактор, тыс кВтч,</t>
   </si>
   <si>
-    <t>Сумма по полю Температурный фактор, тыс кВтч</t>
+    <t>После скачивания обновите сводную таблицу!</t>
+  </si>
+  <si>
+    <t>На листе "Данные" расположена таблица, которую вы настроили на сайте, а так же данные о температурном факторе по месячно по выбранным вам годам</t>
   </si>
 </sst>
 </file>
@@ -128,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,13 +162,51 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -185,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,35 +244,297 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="61">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -254,6 +567,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -284,6 +607,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -309,206 +642,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,12 +658,173 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Филиал">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7755F16-46DB-4542-9359-AE50AB420BA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Филиал"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15265400" y="1447800"/>
+              <a:ext cx="1828800" cy="4787900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Месяц">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6A44E3-5C4A-0540-A2BA-B7894431C6A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Месяц"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13271500" y="1447800"/>
+              <a:ext cx="1828800" cy="4724400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44361.806645949073" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="113" xr:uid="{A1D28D28-93A0-B949-9ABD-7627F3082ED9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I1:P1048576" sheet="Данные"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="10">
     <cacheField name="Филиал" numFmtId="0">
       <sharedItems containsBlank="1" count="2">
         <s v="${table:offsets.department}"/>
@@ -570,10 +864,12 @@
     <cacheField name="Температурный фактор, тыс кВтч" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Данамика температуры" numFmtId="0" formula=" 0" databaseField="0"/>
+    <cacheField name="Динамика температуры" numFmtId="0" formula="'Температура за текущий период, С'-'Температура за прошлый период, С'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1003220740"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1715,9 +2011,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBC14E1-2ABA-764B-93EB-FAD2CFE6D3E9}" name="Сводная таблица2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBC14E1-2ABA-764B-93EB-FAD2CFE6D3E9}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" showDrill="0" showDataTips="0" enableDrill="0" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -1725,7 +2021,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -1756,6 +2052,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1791,18 +2089,15 @@
       <x v="4"/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="5">
-    <dataField name="Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Отпуск в сеть за текущий период, тыс кВтч" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Среднее по полю Температура за прошлый период, С" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Среднее по полю Температура за текущий период, С" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Температурный фактор, тыс кВтч" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="ОС за прошлый период, тыс кВтч" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="ОС за текущий период, тыс кВтч" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="температура за прошлый период, С," fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Температура за текущий период, С," fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Температурный фактор, тыс кВтч," fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="7">
+  <formats count="25">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1815,7 +2110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="49">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1828,7 +2123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1841,18 +2136,151 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1865,6 +2293,45 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Филиал" xr10:uid="{07AFC6B0-F0D9-0543-B730-5A21EF0774BF}" sourceName="Филиал">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003220740">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Месяц" xr10:uid="{0A8D7EF9-826D-0E4C-8768-0758E895DFAA}" sourceName="Месяц">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003220740">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Филиал" xr10:uid="{71357F58-ED9B-524D-AAF7-216FE7EEE684}" cache="Срез_Филиал" caption="Филиал" rowHeight="251883"/>
+  <slicer name="Месяц" xr10:uid="{D12D1848-4D2A-B24F-87C1-7692BCEE13A5}" cache="Срез_Месяц" caption="Месяц" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2167,7 +2634,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
@@ -3555,34 +4022,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G1048576">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P1048576">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3593,97 +4060,135 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98EEA8B-A86F-A540-BCF0-90B6F9B57B28}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="e">
+      <c r="D8" s="8" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="8" t="e">
+      <c r="E8" s="8" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4 F9:F1048576">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>